--- a/data/trans_camb/P16A15-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P16A15-Dificultad-trans_camb.xlsx
@@ -540,7 +540,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos para bajar el colesterol en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/P16A15-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P16A15-Dificultad-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>0.07341402159699861</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>2.324128650969373</v>
+        <v>2.324128650969376</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>1.37933270756259</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.927745394470547</v>
+        <v>-1.667312555128255</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.465111828869223</v>
+        <v>-1.081981219460587</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.4990128987936812</v>
+        <v>-0.3091078629864111</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.7075121309233834</v>
+        <v>-0.7926438080520033</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.951898435752661</v>
+        <v>-2.775513792519598</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.154074534737796</v>
+        <v>-1.318721725630082</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.425464642556362</v>
+        <v>-0.8897151129748966</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.616409650283234</v>
+        <v>-1.474019896085331</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.1216364231936165</v>
+        <v>0.1621062831243886</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.004514702313982</v>
+        <v>4.07277862954312</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.815898280256615</v>
+        <v>4.79872645666096</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.868786018680495</v>
+        <v>7.116427880561692</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.519305516890344</v>
+        <v>5.43679385169305</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.251170524021965</v>
+        <v>3.231376717470307</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.554389913347095</v>
+        <v>5.427874504870233</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.461686992219339</v>
+        <v>3.574279602140723</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.618789266087023</v>
+        <v>2.885078479663651</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>4.829890211243572</v>
+        <v>4.906303870012497</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.005611720698700261</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1776549026108707</v>
+        <v>0.1776549026108709</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.1186599302886306</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1711129472844566</v>
+        <v>-0.1504238955801516</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.121422196103004</v>
+        <v>-0.1061245359053626</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.05356838007793825</v>
+        <v>-0.03823162773446661</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.04877938796483196</v>
+        <v>-0.05152059613522286</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1965914267186291</v>
+        <v>-0.1879682822890884</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.07745950643659073</v>
+        <v>-0.08894646755243643</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.103426186177244</v>
+        <v>-0.0661195868604736</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1263280919209366</v>
+        <v>-0.1150942712581774</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.008997262764077632</v>
+        <v>0.009506610647362785</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.5116332797562303</v>
+        <v>0.5382013626830271</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.6456972906084671</v>
+        <v>0.5998337146956558</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.8557834156336889</v>
+        <v>0.8926203472100859</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.4905189599496491</v>
+        <v>0.4698154827807108</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2805462155809106</v>
+        <v>0.2842178954737544</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.486310570130235</v>
+        <v>0.4643946046202064</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3361257023176482</v>
+        <v>0.3481315596945588</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2528993515186105</v>
+        <v>0.2759068324974013</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.4537655387328292</v>
+        <v>0.4711039657756565</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>2.936761056288582</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>8.2527316686477</v>
+        <v>8.252731668647696</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.232588402617872</v>
+        <v>2.382176064465087</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.9338211383210896</v>
+        <v>0.9604665068545231</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4.889347694483454</v>
+        <v>4.979639920641919</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.135721902861395</v>
+        <v>1.419362224467732</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2153042437789105</v>
+        <v>0.1889585861843771</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>6.820303378971571</v>
+        <v>6.77829777352844</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>2.51969017129544</v>
+        <v>2.386102308781186</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.211396434297692</v>
+        <v>1.398867560568871</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>6.670358371971928</v>
+        <v>6.493055063469081</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.885532349262188</v>
+        <v>7.125481514561272</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.6148335013656</v>
+        <v>5.553527848294167</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.762495421451483</v>
+        <v>9.867910206634678</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.113764019161453</v>
+        <v>6.032183831545145</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>5.246142917497504</v>
+        <v>4.922061747577815</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>11.16893424155753</v>
+        <v>11.2230430372767</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>5.883631485187203</v>
+        <v>5.833153821212664</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>4.612052666445114</v>
+        <v>4.747827423323292</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>9.887232430405479</v>
+        <v>9.837761993740234</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>0.4966123197278685</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>1.395553856614491</v>
+        <v>1.39555385661449</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.3434379870542469</v>
+        <v>0.3755285222098488</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1485667569512513</v>
+        <v>0.1468548780146022</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.7523608999992314</v>
+        <v>0.8220575039996475</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.1383044530413084</v>
+        <v>0.1836316245011778</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.02443045456068623</v>
+        <v>0.001339029250667857</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9070560165577458</v>
+        <v>0.9066726034723449</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3753845739582942</v>
+        <v>0.3524903460427853</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1792353425619776</v>
+        <v>0.2010128637228285</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.9921803847031067</v>
+        <v>0.9854437259632866</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.578492553800664</v>
+        <v>1.57743887371045</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.246371855503049</v>
+        <v>1.229115947389531</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.221985725761505</v>
+        <v>2.324915770115321</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.133414897453754</v>
+        <v>1.09985694776332</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.97056418748892</v>
+        <v>0.8791977723806549</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.166822421264767</v>
+        <v>2.152915313639199</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.125437572977994</v>
+        <v>1.120939473663446</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.8811534202567188</v>
+        <v>0.9025449526668281</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.919002922994078</v>
+        <v>1.945117629839193</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>3.251422085897925</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>6.585831765332658</v>
+        <v>6.585831765332665</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>6.779862093759215</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>4.276712777158155</v>
+        <v>3.923273752076891</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.77363555310317</v>
+        <v>1.550087153728424</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.873110002009589</v>
+        <v>4.854564993172068</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4.333736897405152</v>
+        <v>4.308735325927556</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.6610837368316327</v>
+        <v>0.460130121305976</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>4.450597492409344</v>
+        <v>4.336438775859419</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>4.912945739878313</v>
+        <v>4.944185209650908</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>1.7175385431483</v>
+        <v>1.869516747141672</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>5.223920305008834</v>
+        <v>5.284624425861981</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.195197107796799</v>
+        <v>9.516117100945811</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.429634045663817</v>
+        <v>6.221157369464376</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.07956903044548</v>
+        <v>9.292357325088357</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.677348548855393</v>
+        <v>9.720537792092497</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>6.02651794475242</v>
+        <v>5.888032371027554</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>8.723404728513596</v>
+        <v>8.703840311550543</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>8.647252764701783</v>
+        <v>8.636686122207138</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>5.273003677825288</v>
+        <v>5.433237077396824</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>8.232438111504749</v>
+        <v>8.331567797326599</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.5470543806203458</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1.108071490588676</v>
+        <v>1.108071490588677</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>1.280457898621651</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.7538922047103198</v>
+        <v>0.6444059768413944</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.2986540880841465</v>
+        <v>0.2818993843238486</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.8146045831843867</v>
+        <v>0.7876855697081404</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.6036528941797864</v>
+        <v>0.6253761889414999</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.08946163298834607</v>
+        <v>0.06252554351405754</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6110542244830049</v>
+        <v>0.5860894621668891</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8049284457914201</v>
+        <v>0.8120955797132147</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.2792934295570905</v>
+        <v>0.3235594462128087</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.8553105865641304</v>
+        <v>0.863195954328617</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.403110077485818</v>
+        <v>2.374792638148875</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.632365051317443</v>
+        <v>1.648288040599268</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.446019596990586</v>
+        <v>2.36466101141523</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.925238373902795</v>
+        <v>1.996282521710747</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.234647263361962</v>
+        <v>1.178965765280719</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.823407149618777</v>
+        <v>1.811133052319468</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.826558617897651</v>
+        <v>1.800017228520916</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.147152533925931</v>
+        <v>1.156680833596674</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.774409582304288</v>
+        <v>1.814642449639139</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>5.149406035626963</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>7.889852426140065</v>
+        <v>7.889852426140062</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.27435751524408</v>
+        <v>1.456347162320124</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2183762793708231</v>
+        <v>0.4223344149188925</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5.056250603484136</v>
+        <v>4.883339545174869</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.4060727280571155</v>
+        <v>0.3621644182432305</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>3.034314219070835</v>
+        <v>2.910021152882771</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>4.685569831878544</v>
+        <v>4.604539515758074</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2.00721313044675</v>
+        <v>2.009483247272338</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>2.901531407521075</v>
+        <v>2.804944387985963</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>5.626564428603043</v>
+        <v>5.912680371811265</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.881091906290346</v>
+        <v>8.222557103354951</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.339914873554835</v>
+        <v>6.429463853161516</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10.45988107657863</v>
+        <v>10.34768631459227</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.400252106066989</v>
+        <v>8.140506520093567</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>11.43640861261677</v>
+        <v>10.88827931732568</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>10.54885381940955</v>
+        <v>10.52663244569715</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>7.033780377507215</v>
+        <v>6.939546557442799</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>7.739739449692995</v>
+        <v>7.362560048775441</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>9.654511313631454</v>
+        <v>9.755218781582611</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>1.156683117668418</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>1.772254710362976</v>
+        <v>1.772254710362975</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.1911258706965358</v>
+        <v>0.2520710093223339</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.03084066413761415</v>
+        <v>0.03182856919883507</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.8535707081791033</v>
+        <v>0.7860181323907266</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.004366787658875151</v>
+        <v>-0.01004805293790083</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.4196509147088973</v>
+        <v>0.4005651418790903</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6157623449554571</v>
+        <v>0.5944210441332305</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.328642768154788</v>
+        <v>0.3523569422381934</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.5178247764112074</v>
+        <v>0.4952370329125272</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.9225373941232107</v>
+        <v>0.9993226829800579</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2.689544554391631</v>
+        <v>2.84277387387649</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2.290274792244433</v>
+        <v>2.318805090097805</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>3.847459476606656</v>
+        <v>3.840047159538157</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>2.241500709670191</v>
+        <v>2.445877096725837</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>3.464398019684114</v>
+        <v>3.460035701769035</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>3.509880170514569</v>
+        <v>3.280128423859833</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>2.07666383628666</v>
+        <v>1.900663643186488</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>2.135931473184006</v>
+        <v>2.162120139864364</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>2.956128458646456</v>
+        <v>2.967565458586425</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>3.582117894123111</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>6.442186848286569</v>
+        <v>6.442186848286574</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>4.309354503760451</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>3.15954898888309</v>
+        <v>3.176874734561625</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>2.39641633219307</v>
+        <v>2.387517113218594</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>5.143115010461722</v>
+        <v>5.135049367369988</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2.723980929572887</v>
+        <v>2.80097475739625</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>1.567001252774301</v>
+        <v>1.606877080632982</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>4.733203364410512</v>
+        <v>4.608957495382512</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>3.444067887144002</v>
+        <v>3.402716404383966</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>2.31782517628834</v>
+        <v>2.349953442350182</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>5.273958801657797</v>
+        <v>5.318194484464563</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.888263144769075</v>
+        <v>5.993547063495279</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.843249998560543</v>
+        <v>4.925113742541335</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7.766589379429475</v>
+        <v>7.743630817525761</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.712674031728739</v>
+        <v>5.747290052089216</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>4.397469106402582</v>
+        <v>4.443993271660146</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>7.240623482845157</v>
+        <v>7.211099881998721</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>5.499524654010203</v>
+        <v>5.464050228874048</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>4.203711311582571</v>
+        <v>4.285469853066185</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>7.098486717589318</v>
+        <v>7.146647058393644</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.6277439240162336</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1.128953253611199</v>
+        <v>1.1289532536112</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.5408038942762537</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.5019889939511047</v>
+        <v>0.482351707726177</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.3799248338197131</v>
+        <v>0.3712341063395529</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.8072019706883927</v>
+        <v>0.8225137740914581</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.3170910972249579</v>
+        <v>0.323117366198029</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1739351022094754</v>
+        <v>0.1821242312973989</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5436032833739496</v>
+        <v>0.5176796091963708</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4692640516632929</v>
+        <v>0.4704018569769057</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.3190087359892948</v>
+        <v>0.3202644535256787</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.723941521800559</v>
+        <v>0.7245360146652012</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.151575273108056</v>
+        <v>1.142216265867343</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.944408556489771</v>
+        <v>1.001489044013807</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.510075968209421</v>
+        <v>1.553061118836345</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.7848461174893238</v>
+        <v>0.7942515800720793</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.587604543111456</v>
+        <v>0.6097153053844077</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.000790555300852</v>
+        <v>1.003268796364802</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.8520862549964568</v>
+        <v>0.8679343315439307</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.6679789296262931</v>
+        <v>0.6634804294859981</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.109132047263333</v>
+        <v>1.121123487000828</v>
       </c>
     </row>
     <row r="34">
